--- a/N 8136 UE WAHID.xlsx
+++ b/N 8136 UE WAHID.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>No</t>
   </si>
@@ -62,6 +62,15 @@
   </si>
   <si>
     <t>N 8136 UE / Wahid</t>
+  </si>
+  <si>
+    <t>11.5 ltr</t>
+  </si>
+  <si>
+    <t>16/03/2024</t>
+  </si>
+  <si>
+    <t>20/12/2023</t>
   </si>
 </sst>
 </file>
@@ -628,7 +637,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,26 +750,39 @@
         <v>9</v>
       </c>
       <c r="E7" s="1">
-        <v>30853</v>
+        <v>24846</v>
       </c>
       <c r="F7" s="1">
-        <f>5000+E7</f>
-        <v>35853</v>
-      </c>
-      <c r="G7" s="4">
-        <v>45415</v>
+        <f>E7+5000</f>
+        <v>29846</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1">
+        <v>32227</v>
+      </c>
+      <c r="F8" s="1">
+        <f>7000+E8</f>
+        <v>39227</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
